--- a/biology/Zoologie/Denté/Denté.xlsx
+++ b/biology/Zoologie/Denté/Denté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dent%C3%A9</t>
+          <t>Denté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme denté désigne plusieurs espèces de poissons de bonne qualité gustative, de la famille des sparidés. En France, il fait référence, en premier lieu, au denté commun (Dentex dentex). Les genres Dentex, Polysteganus, Argyrozona, Petrus et Virididentex sont exclusivement constitués de dentés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dent%C3%A9</t>
+          <t>Denté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des dentés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Denté à gros yeux - Dentex macrophthalmus
 Denté à long fil - Dentex gibbosus
